--- a/SEO-audit for Project 4.xlsx
+++ b/SEO-audit for Project 4.xlsx
@@ -79,18 +79,10 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="14"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://neilpatel.com/blog/open-graph-meta-tags/#:~:text=og%3Atitle,is%20shared%20as%20a%20URL</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-      </rPr>
-      <t>.</t>
+      <t>https://developers.facebook.com/docs/sharing/webmasters/</t>
     </r>
   </si>
   <si>
@@ -110,10 +102,10 @@
       <rPr>
         <u val="single"/>
         <sz val="12"/>
-        <color indexed="13"/>
+        <color indexed="14"/>
         <rFont val="Arial"/>
       </rPr>
-      <t>https://dequeuniversity.com/rules/axe/4.4/color-contrast</t>
+      <t>https://www.w3.org/TR/WCAG21/#dfn-contrast-ratio</t>
     </r>
   </si>
   <si>
@@ -231,7 +223,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -282,8 +274,14 @@
       <color indexed="13"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="14"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +291,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -388,31 +392,31 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="6" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="7" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="7" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -437,6 +441,7 @@
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff0563c1"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -635,17 +640,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -673,10 +678,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -924,12 +929,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1216,7 +1221,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1244,10 +1249,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2071,13 +2076,13 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" location="" tooltip="" display="https://www.w3schools.com/tags/ref_language_codes.asp"/>
-    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display="https://neilpatel.com/blog/open-graph-meta-tags/#:~:text=og%3Atitle,is%20shared%20as%20a%20URL"/>
-    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display="https://dequeuniversity.com/rules/axe/4.4/color-contrast"/>
+    <hyperlink ref="F4" r:id="rId2" location="" tooltip="" display="https://developers.facebook.com/docs/sharing/webmasters/"/>
+    <hyperlink ref="F5" r:id="rId3" location="" tooltip="" display="https://www.w3.org/TR/WCAG21/#dfn-contrast-ratio"/>
     <hyperlink ref="F6" r:id="rId4" location="" tooltip="" display="https://web.dev/uses-responsive-images/"/>
     <hyperlink ref="F7" r:id="rId5" location="" tooltip="" display="https://css-tricks.com/using-webp-images/"/>
     <hyperlink ref="F8" r:id="rId6" location="" tooltip="" display="https://www.w3schools.com/tags/att_img_alt.asp"/>
     <hyperlink ref="F9" r:id="rId7" location="" tooltip="" display="https://www.aditus.io/aria/aria-label/"/>
-    <hyperlink ref="F10" r:id="rId8" location="" tooltip="" display="https://neilpatel.com/blog/open-graph-meta-tags/#:~:text=og%3Atitle,is%20shared%20as%20a%20URL"/>
+    <hyperlink ref="F10" r:id="rId8" location="" tooltip="" display="https://developers.facebook.com/docs/sharing/webmasters/"/>
     <hyperlink ref="F11" r:id="rId9" location="" tooltip="" display="https://www.w3schools.com/tags/ref_language_codes.asp"/>
     <hyperlink ref="F12" r:id="rId10" location="" tooltip="" display="https://www.w3schools.com/tags/att_img_alt.asp"/>
   </hyperlinks>
